--- a/bin/Debug/CauHoi.xlsx
+++ b/bin/Debug/CauHoi.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLU\Đồ án 1\Đồ án 1 - Nhóm 14\Đồ án 1 - Nhóm 14\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96357E5A-7EB9-4DDF-8520-5C02DD0803A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42863CAB-8566-42BE-B834-6275916D6217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F339FA2B-3473-4979-8A76-55EB0B03A2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F339FA2B-3473-4979-8A76-55EB0B03A2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="880">
   <si>
     <t>NoiDung</t>
   </si>
@@ -62,6 +63,357 @@
     <t>ChuDe</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Ai là vị vua đầu tiên của Việt Nam?</t>
+  </si>
+  <si>
+    <t>Lý Thái Tổ</t>
+  </si>
+  <si>
+    <t>Đinh Bộ Lĩnh</t>
+  </si>
+  <si>
+    <t>Lê Lợi</t>
+  </si>
+  <si>
+    <t>Quang Trung</t>
+  </si>
+  <si>
+    <t>Đinh Bộ Lĩnh là người thống nhất đất nước và lập ra nhà Đinh.</t>
+  </si>
+  <si>
+    <t>Lịch sử</t>
+  </si>
+  <si>
+    <t>Nhà Trần nổi tiếng với cuộc kháng chiến chống quân xâm lược nào?</t>
+  </si>
+  <si>
+    <t>Nguyên Mông</t>
+  </si>
+  <si>
+    <t>Pháp</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Tống</t>
+  </si>
+  <si>
+    <t>Nhà Trần ba lần đánh bại quân Nguyên Mông thế kỷ 13.</t>
+  </si>
+  <si>
+    <t>“Hịch tướng sĩ” là tác phẩm của ai?</t>
+  </si>
+  <si>
+    <t>Nguyễn Trãi</t>
+  </si>
+  <si>
+    <t>Trần Quốc Tuấn</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Trần Quốc Tuấn (Hưng Đạo Đại Vương) viết để khích lệ binh lính.</t>
+  </si>
+  <si>
+    <t>Bác Hồ đọc Tuyên ngôn Độc lập vào năm nào?</t>
+  </si>
+  <si>
+    <t>Ngày 2/9/1945 tại Quảng trường Ba Đình.</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>Trận Điện Biên Phủ diễn ra năm nào?</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>Trận chiến lịch sử thắng Pháp vào năm 1954.</t>
+  </si>
+  <si>
+    <t>Chiến dịch Hồ Chí Minh kết thúc vào ngày nào?</t>
+  </si>
+  <si>
+    <t>26/4/1975</t>
+  </si>
+  <si>
+    <t>28/4/1975</t>
+  </si>
+  <si>
+    <t>29/4/1975</t>
+  </si>
+  <si>
+    <t>30/4/1975</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Ngày 30/4/1975, miền Nam hoàn toàn giải phóng.</t>
+  </si>
+  <si>
+    <t>Ai là người phát động phong trào Cần Vương?</t>
+  </si>
+  <si>
+    <t>Nguyễn Huệ</t>
+  </si>
+  <si>
+    <t>Phan Bội Châu</t>
+  </si>
+  <si>
+    <t>Tôn Thất Thuyết</t>
+  </si>
+  <si>
+    <t>Nguyễn Trường Tộ</t>
+  </si>
+  <si>
+    <t>Tôn Thất Thuyết khởi xướng phong trào giúp vua cứu nước.</t>
+  </si>
+  <si>
+    <t>Hội nghị Genève chấm dứt chiến tranh Đông Dương vào năm nào?</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>Diễn ra sau thắng lợi Điện Biên Phủ năm 1954.</t>
+  </si>
+  <si>
+    <t>Quang Trung đánh tan quân Thanh vào năm nào?</t>
+  </si>
+  <si>
+    <t>1778</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1789</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>Trận Ngọc Hồi – Đống Đa diễn ra năm 1789.</t>
+  </si>
+  <si>
+    <t>Tên gọi nước ta thời vua Lê Thánh Tông là gì?</t>
+  </si>
+  <si>
+    <t>Đại Việt</t>
+  </si>
+  <si>
+    <t>Văn Lang</t>
+  </si>
+  <si>
+    <t>Âu Lạc</t>
+  </si>
+  <si>
+    <t>Đại Nam</t>
+  </si>
+  <si>
+    <t>Dưới thời Lê Thánh Tông, quốc hiệu là Đại Việt.</t>
+  </si>
+  <si>
+    <t>Phong trào Đông Du do ai lãnh đạo?</t>
+  </si>
+  <si>
+    <t>Phan Châu Trinh</t>
+  </si>
+  <si>
+    <t>Trần Quý Cáp</t>
+  </si>
+  <si>
+    <t>Huỳnh Thúc Kháng</t>
+  </si>
+  <si>
+    <t>Phan Bội Châu kêu gọi thanh niên sang Nhật học.</t>
+  </si>
+  <si>
+    <t>Bà Trưng khởi nghĩa vào năm nào?</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Hai Bà Trưng nổi dậy năm 40 chống lại quân Hán.</t>
+  </si>
+  <si>
+    <t>Triều đại nào tồn tại lâu nhất trong lịch sử phong kiến Việt Nam?</t>
+  </si>
+  <si>
+    <t>Lý</t>
+  </si>
+  <si>
+    <t>Trần</t>
+  </si>
+  <si>
+    <t>Lê</t>
+  </si>
+  <si>
+    <t>Nguyễn</t>
+  </si>
+  <si>
+    <t>Nhà Lê kéo dài từ 1428 đến 1789 (dù có thời gian gián đoạn).</t>
+  </si>
+  <si>
+    <t>Ai là người đầu tiên đánh bại quân Nam Hán?</t>
+  </si>
+  <si>
+    <t>Ngô Quyền</t>
+  </si>
+  <si>
+    <t>Lê Đại Hành</t>
+  </si>
+  <si>
+    <t>Lý Công Uẩn</t>
+  </si>
+  <si>
+    <t>Ngô Quyền đánh bại quân Nam Hán trên sông Bạch Đằng năm 938.</t>
+  </si>
+  <si>
+    <t>Bác Hồ về nước năm nào để lãnh đạo cách mạng?</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>Bác Hồ về nước tại Pác Bó – Cao Bằng năm 1941.</t>
+  </si>
+  <si>
+    <t>Hiệp định Paris được ký năm nào?</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>Ký ngày 27/1/1973, Mỹ rút quân khỏi Việt Nam.</t>
+  </si>
+  <si>
+    <t>Nhà Lý dời đô từ Hoa Lư về Thăng Long năm nào?</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>Lý Thái Tổ dời đô năm 1010, mở ra thời kỳ phát triển mới.</t>
+  </si>
+  <si>
+    <t>Ai là người sáng lập nhà Nguyễn?</t>
+  </si>
+  <si>
+    <t>Gia Long</t>
+  </si>
+  <si>
+    <t>Minh Mạng</t>
+  </si>
+  <si>
+    <t>Tự Đức</t>
+  </si>
+  <si>
+    <t>Thiệu Trị</t>
+  </si>
+  <si>
+    <t>Gia Long (Nguyễn Ánh) thống nhất đất nước, lập ra triều Nguyễn.</t>
+  </si>
+  <si>
+    <t>Vua nào có công lập Văn Miếu – Quốc Tử Giám?</t>
+  </si>
+  <si>
+    <t>Lý Nhân Tông</t>
+  </si>
+  <si>
+    <t>Lý Thường Kiệt</t>
+  </si>
+  <si>
+    <t>Lý Thái Tông</t>
+  </si>
+  <si>
+    <t>Lý Nhân Tông lập Văn Miếu – trường đại học đầu tiên.</t>
+  </si>
+  <si>
+    <t>Ngày Giải phóng Thủ đô là ngày nào?</t>
+  </si>
+  <si>
+    <t>2/9/1945</t>
+  </si>
+  <si>
+    <t>10/10/1954</t>
+  </si>
+  <si>
+    <t>20/7/1954</t>
+  </si>
+  <si>
+    <t>Quân dân Hà Nội tiếp quản Thủ đô ngày 10/10/1954.</t>
+  </si>
+  <si>
     <t>Trái đất quay quanh gì?</t>
   </si>
   <si>
@@ -77,58 +429,2254 @@
     <t>Sao Kim</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Trái đất quay quanh mặt trời</t>
   </si>
   <si>
     <t>Khoa học</t>
   </si>
   <si>
-    <t>Nước nào lớn nhất?</t>
+    <t>Nước có công thức hóa học là gì?</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>Nước là H2O (2 nguyên tử Hydro, 1 Oxy)</t>
+  </si>
+  <si>
+    <t>Cơ quan nào điều khiển cơ thể người?</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Gan</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Phổi</t>
+  </si>
+  <si>
+    <t>Não điều khiển toàn bộ hoạt động cơ thể</t>
+  </si>
+  <si>
+    <t>Mặt trời là gì?</t>
+  </si>
+  <si>
+    <t>Hành tinh</t>
+  </si>
+  <si>
+    <t>Ngôi sao</t>
+  </si>
+  <si>
+    <t>Vệ tinh</t>
+  </si>
+  <si>
+    <t>Thiên thạch</t>
+  </si>
+  <si>
+    <t>Mặt trời là một ngôi sao gần trái đất nhất</t>
+  </si>
+  <si>
+    <t>Oxy cần cho quá trình nào?</t>
+  </si>
+  <si>
+    <t>Tiêu hóa</t>
+  </si>
+  <si>
+    <t>Hô hấp</t>
+  </si>
+  <si>
+    <t>Tuần hoàn</t>
+  </si>
+  <si>
+    <t>Sinh sản</t>
+  </si>
+  <si>
+    <t>Oxy giúp thực hiện quá trình hô hấp tế bào</t>
+  </si>
+  <si>
+    <t>Loại động vật nào có vú?</t>
+  </si>
+  <si>
+    <t>Cá heo</t>
+  </si>
+  <si>
+    <t>Cá chép</t>
+  </si>
+  <si>
+    <t>Rắn</t>
+  </si>
+  <si>
+    <t>Ếch</t>
+  </si>
+  <si>
+    <t>Cá heo là động vật có vú sống dưới nước</t>
+  </si>
+  <si>
+    <t>Nhiệt độ nước sôi ở mức nào (áp suất thường)?</t>
+  </si>
+  <si>
+    <t>50°C</t>
+  </si>
+  <si>
+    <t>75°C</t>
+  </si>
+  <si>
+    <t>90°C</t>
+  </si>
+  <si>
+    <t>100°C</t>
+  </si>
+  <si>
+    <t>Nước sôi ở 100°C dưới áp suất thường</t>
+  </si>
+  <si>
+    <t>ADN có dạng cấu trúc gì?</t>
+  </si>
+  <si>
+    <t>Hình tròn</t>
+  </si>
+  <si>
+    <t>Hình dẹp</t>
+  </si>
+  <si>
+    <t>Xoắn kép</t>
+  </si>
+  <si>
+    <t>Tam giác</t>
+  </si>
+  <si>
+    <t>ADN có dạng xoắn kép (double helix)</t>
+  </si>
+  <si>
+    <t>Kim loại dẫn điện tốt nhất là?</t>
+  </si>
+  <si>
+    <t>Sắt</t>
+  </si>
+  <si>
+    <t>Nhôm</t>
+  </si>
+  <si>
+    <t>Đồng</t>
+  </si>
+  <si>
+    <t>Bạc</t>
+  </si>
+  <si>
+    <t>Bạc là kim loại dẫn điện tốt nhất</t>
+  </si>
+  <si>
+    <t>Trái đất có bao nhiêu lục địa?</t>
+  </si>
+  <si>
+    <t>Có 7 lục địa: Á, Âu, Phi, Mỹ (Bắc &amp; Nam), Úc, Nam Cực</t>
+  </si>
+  <si>
+    <t>Nguyên tố nhẹ nhất là?</t>
+  </si>
+  <si>
+    <t>Oxy</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Hydro là nguyên tố nhẹ nhất trong bảng tuần hoàn</t>
+  </si>
+  <si>
+    <t>Vi khuẩn là sinh vật...?</t>
+  </si>
+  <si>
+    <t>Đơn bào</t>
+  </si>
+  <si>
+    <t>Đa bào</t>
+  </si>
+  <si>
+    <t>Thực vật</t>
+  </si>
+  <si>
+    <t>Nấm</t>
+  </si>
+  <si>
+    <t>Vi khuẩn là sinh vật đơn bào</t>
+  </si>
+  <si>
+    <t>Tế bào thực vật có gì mà tế bào động vật không có?</t>
+  </si>
+  <si>
+    <t>Nhân</t>
+  </si>
+  <si>
+    <t>Ti thể</t>
+  </si>
+  <si>
+    <t>Vách tế bào</t>
+  </si>
+  <si>
+    <t>Màng tế bào</t>
+  </si>
+  <si>
+    <t>Vách tế bào chỉ có ở tế bào thực vật</t>
+  </si>
+  <si>
+    <t>Năng lượng Mặt trời là loại năng lượng gì?</t>
+  </si>
+  <si>
+    <t>Cơ học</t>
+  </si>
+  <si>
+    <t>Điện</t>
+  </si>
+  <si>
+    <t>Hóa học</t>
+  </si>
+  <si>
+    <t>Bức xạ</t>
+  </si>
+  <si>
+    <t>Mặt trời phát ra năng lượng bức xạ</t>
+  </si>
+  <si>
+    <t>Đơn vị đo điện là gì?</t>
+  </si>
+  <si>
+    <t>Volt</t>
+  </si>
+  <si>
+    <t>Mét</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>Volt là đơn vị đo hiệu điện thế</t>
+  </si>
+  <si>
+    <t>Lực hấp dẫn được phát hiện bởi ai?</t>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Newton phát hiện ra lực hấp dẫn khi thấy quả táo rơi</t>
+  </si>
+  <si>
+    <t>Nguyên tử được cấu tạo từ gì?</t>
+  </si>
+  <si>
+    <t>Proton, neutron, electron</t>
+  </si>
+  <si>
+    <t>Proton, oxygen, hydrogen</t>
+  </si>
+  <si>
+    <t>Neutron, electron, carbon</t>
+  </si>
+  <si>
+    <t>Chỉ electron</t>
+  </si>
+  <si>
+    <t>Cấu tạo cơ bản gồm: proton, neutron, electron</t>
+  </si>
+  <si>
+    <t>Thiết bị nào đo nhiệt độ?</t>
+  </si>
+  <si>
+    <t>Ampe kế</t>
+  </si>
+  <si>
+    <t>Nhiệt kế</t>
+  </si>
+  <si>
+    <t>Volt kế</t>
+  </si>
+  <si>
+    <t>Tivi</t>
+  </si>
+  <si>
+    <t>Nhiệt kế dùng để đo nhiệt độ</t>
+  </si>
+  <si>
+    <t>Động vật nào có khả năng thay đổi màu da?</t>
+  </si>
+  <si>
+    <t>Cá vàng</t>
+  </si>
+  <si>
+    <t>Rùa</t>
+  </si>
+  <si>
+    <t>Tắc kè</t>
+  </si>
+  <si>
+    <t>Cá mập</t>
+  </si>
+  <si>
+    <t>Tắc kè có khả năng ngụy trang nhờ đổi màu da</t>
+  </si>
+  <si>
+    <t>Trong cơ thể người, xương nào dài nhất?</t>
+  </si>
+  <si>
+    <t>Xương tay</t>
+  </si>
+  <si>
+    <t>Xương sườn</t>
+  </si>
+  <si>
+    <t>Xương đùi</t>
+  </si>
+  <si>
+    <t>Xương sống</t>
+  </si>
+  <si>
+    <t>Xương đùi là xương dài nhất trong cơ thể</t>
+  </si>
+  <si>
+    <t>Quốc gia lớn nhất thế giới theo diện tích là?</t>
+  </si>
+  <si>
+    <t>Trung Quốc</t>
+  </si>
+  <si>
+    <t>Mỹ</t>
   </si>
   <si>
     <t>Nga</t>
   </si>
   <si>
-    <t>Hoa Kì</t>
-  </si>
-  <si>
-    <t>Trung Quốc</t>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Nga có diện tích lớn nhất thế giới</t>
+  </si>
+  <si>
+    <t>Địa lý</t>
+  </si>
+  <si>
+    <t>Châu lục nào có dân số đông nhất?</t>
+  </si>
+  <si>
+    <t>Châu Âu</t>
+  </si>
+  <si>
+    <t>Châu Phi</t>
+  </si>
+  <si>
+    <t>Châu Á</t>
+  </si>
+  <si>
+    <t>Châu Mỹ</t>
+  </si>
+  <si>
+    <t>Châu Á chiếm hơn 60% dân số thế giới</t>
+  </si>
+  <si>
+    <t>Thủ đô của Việt Nam là?</t>
+  </si>
+  <si>
+    <t>Huế</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Sài Gòn</t>
+  </si>
+  <si>
+    <t>Hà Nội là thủ đô của Việt Nam</t>
+  </si>
+  <si>
+    <t>Núi cao nhất thế giới là?</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>Everest</t>
+  </si>
+  <si>
+    <t>Andes</t>
+  </si>
+  <si>
+    <t>Kilimanjaro</t>
+  </si>
+  <si>
+    <t>Everest cao nhất thế giới, nằm ở dãy Himalaya</t>
+  </si>
+  <si>
+    <t>Sa mạc lớn nhất thế giới là?</t>
+  </si>
+  <si>
+    <t>Gobi</t>
+  </si>
+  <si>
+    <t>Sahara</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Thar</t>
+  </si>
+  <si>
+    <t>Sahara là sa mạc lớn nhất thế giới theo diện tích</t>
+  </si>
+  <si>
+    <t>Sông nào dài nhất thế giới?</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Nile</t>
+  </si>
+  <si>
+    <t>Yangtze</t>
+  </si>
+  <si>
+    <t>Mekong</t>
+  </si>
+  <si>
+    <t>Sông Nile dài nhất thế giới (dù có tranh cãi với Amazon)</t>
+  </si>
+  <si>
+    <t>Thành phố đông dân nhất thế giới là?</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Thượng Hải</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Tokyo có dân số đô thị lớn nhất thế giới</t>
+  </si>
+  <si>
+    <t>Biển nào lớn nhất thế giới?</t>
+  </si>
+  <si>
+    <t>Biển Đen</t>
+  </si>
+  <si>
+    <t>Biển Đông</t>
+  </si>
+  <si>
+    <t>Biển Philippines</t>
+  </si>
+  <si>
+    <t>Biển Coral</t>
+  </si>
+  <si>
+    <t>Biển Philippines là biển lớn nhất thế giới</t>
+  </si>
+  <si>
+    <t>Châu lục nào nhỏ nhất?</t>
+  </si>
+  <si>
+    <t>Châu Nam Cực</t>
+  </si>
+  <si>
+    <t>Châu Đại Dương</t>
+  </si>
+  <si>
+    <t>Châu Đại Dương (Úc và các đảo) nhỏ nhất</t>
+  </si>
+  <si>
+    <t>Hồ nước ngọt lớn nhất thế giới là?</t>
+  </si>
+  <si>
+    <t>Hồ Baikal</t>
+  </si>
+  <si>
+    <t>Hồ Victoria</t>
+  </si>
+  <si>
+    <t>Hồ Michigan</t>
+  </si>
+  <si>
+    <t>Hồ Superior</t>
+  </si>
+  <si>
+    <t>Hồ Superior ở Bắc Mỹ là lớn nhất theo diện tích</t>
+  </si>
+  <si>
+    <t>Nước nào có dân số đông nhất thế giới?</t>
+  </si>
+  <si>
+    <t>Ấn Độ</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Trung Quốc là nước đông dân nhất hiện nay</t>
+  </si>
+  <si>
+    <t>Kênh đào Panama nối hai đại dương nào?</t>
+  </si>
+  <si>
+    <t>Thái Bình Dương và Đại Tây Dương</t>
+  </si>
+  <si>
+    <t>Ấn Độ Dương và Thái Bình Dương</t>
+  </si>
+  <si>
+    <t>Đại Tây Dương và Bắc Băng Dương</t>
+  </si>
+  <si>
+    <t>Hồng Hải và Địa Trung Hải</t>
+  </si>
+  <si>
+    <t>Kênh đào Panama nối Thái Bình và Đại Tây Dương</t>
+  </si>
+  <si>
+    <t>Dãy núi nào dài nhất thế giới?</t>
+  </si>
+  <si>
+    <t>Alps</t>
+  </si>
+  <si>
+    <t>Himalaya</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Andes dài nhất, chạy dọc Nam Mỹ</t>
+  </si>
+  <si>
+    <t>Quốc gia nào có nhiều đảo nhất?</t>
+  </si>
+  <si>
+    <t>Nhật Bản</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Indonesia có hơn 17.000 hòn đảo</t>
+  </si>
+  <si>
+    <t>Châu lục nào có ít quốc gia nhất?</t>
+  </si>
+  <si>
+    <t>Châu Đại Dương có số quốc gia ít nhất</t>
+  </si>
+  <si>
+    <t>Vịnh nào lớn nhất thế giới?</t>
+  </si>
+  <si>
+    <t>Vịnh Mexico</t>
+  </si>
+  <si>
+    <t>Vịnh Bengal</t>
+  </si>
+  <si>
+    <t>Vịnh Hạ Long</t>
+  </si>
+  <si>
+    <t>Vịnh Hudson</t>
+  </si>
+  <si>
+    <t>Vịnh Bengal là vịnh lớn nhất thế giới</t>
+  </si>
+  <si>
+    <t>Quốc gia nào có đường bờ biển dài nhất?</t>
   </si>
   <si>
     <t>Úc</t>
   </si>
   <si>
-    <t>Nga có diện tích lớn nhất</t>
-  </si>
-  <si>
-    <t>Địa lý</t>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Canada có đường bờ biển dài nhất thế giới</t>
+  </si>
+  <si>
+    <t>Núi lửa nào hoạt động mạnh nhất thế giới?</t>
+  </si>
+  <si>
+    <t>Etna</t>
+  </si>
+  <si>
+    <t>Mauna Loa</t>
+  </si>
+  <si>
+    <t>Vesuvius</t>
+  </si>
+  <si>
+    <t>Mauna Loa (Hawaii) là núi lửa lớn nhất còn hoạt động</t>
+  </si>
+  <si>
+    <t>Châu lục nào có diện tích lớn nhất?</t>
+  </si>
+  <si>
+    <t>Châu Á là châu lục lớn nhất thế giới</t>
+  </si>
+  <si>
+    <t>Sông Mê Kông chảy qua bao nhiêu quốc gia?</t>
+  </si>
+  <si>
+    <t>Mê Kông chảy qua 6 quốc gia: TQ, Myanmar, Lào, Thái, Campuchia, VN</t>
   </si>
   <si>
     <t>Ai sáng lập Facebook?</t>
   </si>
   <si>
-    <t>Elon</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg sáng lập</t>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg là người sáng lập Facebook</t>
   </si>
   <si>
     <t>Công nghệ</t>
+  </si>
+  <si>
+    <t>Công ty nào sản xuất hệ điều hành Windows?</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Microsoft phát triển hệ điều hành Windows</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập trình phổ biến cho phát triển web là gì?</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>HTML là ngôn ngữ đánh dấu nền tảng của web</t>
+  </si>
+  <si>
+    <t>Trình duyệt nào phổ biến nhất hiện nay?</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Chrome là trình duyệt phổ biến nhất hiện nay</t>
+  </si>
+  <si>
+    <t>Hệ điều hành của iPhone là gì?</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Windows Mobile</t>
+  </si>
+  <si>
+    <t>Blackberry OS</t>
+  </si>
+  <si>
+    <t>iPhone sử dụng hệ điều hành iOS do Apple phát triển</t>
+  </si>
+  <si>
+    <t>Thiết bị nào dùng để lưu trữ dữ liệu lâu dài?</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>ROM dùng để lưu trữ dữ liệu lâu dài</t>
+  </si>
+  <si>
+    <t>Công nghệ nào giúp truyền dữ liệu không dây tầm ngắn?</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>HDMI</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>Bluetooth là công nghệ truyền dữ liệu không dây gần</t>
+  </si>
+  <si>
+    <t>Thiết bị nào là phần cứng?</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+  </si>
+  <si>
+    <t>Mouse là phần cứng, còn lại là phần mềm</t>
+  </si>
+  <si>
+    <t>Youtube thuộc sở hữu của công ty nào?</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Youtube thuộc sở hữu của Google</t>
+  </si>
+  <si>
+    <t>Tốc độ mạng được đo bằng đơn vị nào?</t>
+  </si>
+  <si>
+    <t>Mbps</t>
+  </si>
+  <si>
+    <t>KBs</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t>Mbps là đơn vị đo tốc độ truyền tải dữ liệu</t>
+  </si>
+  <si>
+    <t>AI là viết tắt của?</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Analog Input</t>
+  </si>
+  <si>
+    <t>Auto Interface</t>
+  </si>
+  <si>
+    <t>Apple Inside</t>
+  </si>
+  <si>
+    <t>AI là viết tắt của Trí tuệ nhân tạo (Artificial Intelligence)</t>
+  </si>
+  <si>
+    <t>Thiết bị nào giúp kết nối mạng?</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Router là thiết bị kết nối và truyền mạng</t>
+  </si>
+  <si>
+    <t>Tên của ổ cứng phổ biến hiện nay?</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>DVD</t>
+  </si>
+  <si>
+    <t>SSD là dạng ổ cứng hiện đại, nhanh hơn HDD</t>
+  </si>
+  <si>
+    <t>App nào phổ biến để gọi video?</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Photoshop</t>
+  </si>
+  <si>
+    <t>Zoom được dùng phổ biến cho gọi video và học online</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ nào không phải ngôn ngữ lập trình?</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Microsoft Word</t>
+  </si>
+  <si>
+    <t>Microsoft Word là phần mềm, không phải ngôn ngữ lập trình</t>
+  </si>
+  <si>
+    <t>CPU là viết tắt của gì?</t>
+  </si>
+  <si>
+    <t>Central Power Unit</t>
+  </si>
+  <si>
+    <t>Central Processing Unit</t>
+  </si>
+  <si>
+    <t>Control Processing Unit</t>
+  </si>
+  <si>
+    <t>Computer Program Unit</t>
+  </si>
+  <si>
+    <t>CPU là Bộ xử lý trung tâm của máy tính</t>
+  </si>
+  <si>
+    <t>Thiết bị nào dùng để nhập dữ liệu vào máy tính?</t>
+  </si>
+  <si>
+    <t>Màn hình</t>
+  </si>
+  <si>
+    <t>Máy in</t>
+  </si>
+  <si>
+    <t>Bàn phím</t>
+  </si>
+  <si>
+    <t>Tai nghe</t>
+  </si>
+  <si>
+    <t>Bàn phím là thiết bị nhập liệu chính</t>
+  </si>
+  <si>
+    <t>Google được thành lập vào năm nào?</t>
+  </si>
+  <si>
+    <t>Google được thành lập năm 1998 bởi Larry Page và Sergey Brin</t>
+  </si>
+  <si>
+    <t>Apple được thành lập bởi ai?</t>
+  </si>
+  <si>
+    <t>Larry Page</t>
+  </si>
+  <si>
+    <t>Steve Jobs là một trong những người sáng lập Apple</t>
+  </si>
+  <si>
+    <t>USB là viết tắt của gì?</t>
+  </si>
+  <si>
+    <t>Universal Serial Bus</t>
+  </si>
+  <si>
+    <t>United System Block</t>
+  </si>
+  <si>
+    <t>User Shared Bridge</t>
+  </si>
+  <si>
+    <t>Universal Server Base</t>
+  </si>
+  <si>
+    <t>USB là chuẩn kết nối thiết bị ngoại vi phổ biến</t>
+  </si>
+  <si>
+    <t>Ai là tác giả của “Truyện Kiều”?</t>
+  </si>
+  <si>
+    <t>Nguyễn Du</t>
+  </si>
+  <si>
+    <t>Hồ Xuân Hương</t>
+  </si>
+  <si>
+    <t>Tố Hữu</t>
+  </si>
+  <si>
+    <t>Nguyễn Du là tác giả của kiệt tác “Truyện Kiều”</t>
+  </si>
+  <si>
+    <t>Văn học</t>
+  </si>
+  <si>
+    <t>Tác phẩm “Chí Phèo” là của ai?</t>
+  </si>
+  <si>
+    <t>Ngô Tất Tố</t>
+  </si>
+  <si>
+    <t>Nam Cao</t>
+  </si>
+  <si>
+    <t>Tô Hoài</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Hoan</t>
+  </si>
+  <si>
+    <t>Nam Cao là tác giả “Chí Phèo”</t>
+  </si>
+  <si>
+    <t>“Dế Mèn phiêu lưu ký” là tác phẩm của ai?</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Ánh</t>
+  </si>
+  <si>
+    <t>Vũ Trọng Phụng</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Tưởng</t>
+  </si>
+  <si>
+    <t>Tô Hoài là tác giả “Dế Mèn phiêu lưu ký”</t>
+  </si>
+  <si>
+    <t>Tác phẩm “Tắt đèn” phê phán điều gì?</t>
+  </si>
+  <si>
+    <t>Giáo dục</t>
+  </si>
+  <si>
+    <t>Chiến tranh</t>
+  </si>
+  <si>
+    <t>Chế độ phong kiến</t>
+  </si>
+  <si>
+    <t>Thiên tai</t>
+  </si>
+  <si>
+    <t>Tác phẩm phê phán xã hội phong kiến bất công</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Ánh nổi tiếng với thể loại nào?</t>
+  </si>
+  <si>
+    <t>Kinh dị</t>
+  </si>
+  <si>
+    <t>Học thuật</t>
+  </si>
+  <si>
+    <t>Tuổi học trò</t>
+  </si>
+  <si>
+    <t>Tự truyện</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Ánh nổi tiếng với truyện tuổi học trò</t>
+  </si>
+  <si>
+    <t>Nhân vật “Lão Hạc” gắn liền với tác giả nào?</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuân</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Châu</t>
+  </si>
+  <si>
+    <t>“Lão Hạc” là truyện ngắn nổi tiếng của Nam Cao</t>
+  </si>
+  <si>
+    <t>“Người lái đò sông Đà” do ai sáng tác?</t>
+  </si>
+  <si>
+    <t>Tác phẩm nổi bật phong cách tùy bút của Nguyễn Tuân</t>
+  </si>
+  <si>
+    <t>Thể thơ lục bát gồm mấy chữ mỗi dòng?</t>
+  </si>
+  <si>
+    <t>6 và 6</t>
+  </si>
+  <si>
+    <t>6 và 8</t>
+  </si>
+  <si>
+    <t>8 và 8</t>
+  </si>
+  <si>
+    <t>4 và 6</t>
+  </si>
+  <si>
+    <t>Lục bát có 1 dòng 6 chữ, 1 dòng 8 chữ</t>
+  </si>
+  <si>
+    <t>Tác phẩm nào gắn liền với Tố Hữu?</t>
+  </si>
+  <si>
+    <t>Vội vàng</t>
+  </si>
+  <si>
+    <t>Từ ấy</t>
+  </si>
+  <si>
+    <t>Tiếng gà trưa</t>
+  </si>
+  <si>
+    <t>Tràng giang</t>
+  </si>
+  <si>
+    <t>“Từ ấy” là bài thơ nổi tiếng của Tố Hữu</t>
+  </si>
+  <si>
+    <t>Ai là tác giả của bài thơ “Sóng”?</t>
+  </si>
+  <si>
+    <t>Hàn Mặc Tử</t>
+  </si>
+  <si>
+    <t>Xuân Diệu</t>
+  </si>
+  <si>
+    <t>Xuân Quỳnh</t>
+  </si>
+  <si>
+    <t>Bằng Việt</t>
+  </si>
+  <si>
+    <t>Xuân Quỳnh sáng tác bài thơ “Sóng”</t>
+  </si>
+  <si>
+    <t>“Tràng Giang” do ai sáng tác?</t>
+  </si>
+  <si>
+    <t>Tế Hanh</t>
+  </si>
+  <si>
+    <t>Huy Cận</t>
+  </si>
+  <si>
+    <t>Nguyễn Khoa Điềm</t>
+  </si>
+  <si>
+    <t>“Tràng Giang” là bài thơ tiêu biểu của Huy Cận</t>
+  </si>
+  <si>
+    <t>Ai là tác giả của “Ai đã đặt tên cho dòng sông”?</t>
+  </si>
+  <si>
+    <t>Hoàng Phủ Ngọc Tường</t>
+  </si>
+  <si>
+    <t>Tạ Duy Anh</t>
+  </si>
+  <si>
+    <t>Lâm Thị Mỹ Dạ</t>
+  </si>
+  <si>
+    <t>Tác phẩm bút ký nổi tiếng của Hoàng Phủ Ngọc Tường</t>
+  </si>
+  <si>
+    <t>Tác phẩm “Rừng xà nu” của ai?</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Thành</t>
+  </si>
+  <si>
+    <t>“Rừng xà nu” thể hiện tinh thần chiến đấu bất khuất</t>
+  </si>
+  <si>
+    <t>“Chiếc lược ngà” thuộc thể loại gì?</t>
+  </si>
+  <si>
+    <t>Tiểu thuyết</t>
+  </si>
+  <si>
+    <t>Truyện ngắn</t>
+  </si>
+  <si>
+    <t>Ký sự</t>
+  </si>
+  <si>
+    <t>Tùy bút</t>
+  </si>
+  <si>
+    <t>Truyện ngắn cảm động về tình cha con thời chiến</t>
+  </si>
+  <si>
+    <t>“Tuyên ngôn Độc lập” là văn bản của ai?</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Trường Chinh</t>
+  </si>
+  <si>
+    <t>Võ Nguyên Giáp</t>
+  </si>
+  <si>
+    <t>Bài văn chính luận nổi tiếng của Chủ tịch Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>“Vợ nhặt” là truyện ngắn của ai?</t>
+  </si>
+  <si>
+    <t>Kim Lân</t>
+  </si>
+  <si>
+    <t>Kim Lân sáng tác truyện ngắn “Vợ nhặt”</t>
+  </si>
+  <si>
+    <t>Tác phẩm “Bến quê” của tác giả nào?</t>
+  </si>
+  <si>
+    <t>Nguyễn Khải</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Thiệp</t>
+  </si>
+  <si>
+    <t>“Bến quê” là truyện ngắn của Nguyễn Minh Châu</t>
+  </si>
+  <si>
+    <t>“Đất nước” là tác phẩm của ai?</t>
+  </si>
+  <si>
+    <t>Bài thơ thuộc trường ca “Mặt đường khát vọng”</t>
+  </si>
+  <si>
+    <t>Ai là tác giả của “Vội vàng”?</t>
+  </si>
+  <si>
+    <t>Xuân Diệu là tác giả của bài thơ “Vội vàng”</t>
+  </si>
+  <si>
+    <t>“Làng” là truyện ngắn của ai?</t>
+  </si>
+  <si>
+    <t>Kim Lân viết truyện ngắn “Làng” về tình yêu quê hương</t>
+  </si>
+  <si>
+    <t>Ai vẽ bức tranh “Mona Lisa”?</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>Vincent Van Gogh</t>
+  </si>
+  <si>
+    <t>Leonardo da Vinci</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>Leonardo da Vinci là tác giả bức “Mona Lisa”</t>
+  </si>
+  <si>
+    <t>Nghệ thuật</t>
+  </si>
+  <si>
+    <t>Nhạc cụ truyền thống Việt Nam là?</t>
+  </si>
+  <si>
+    <t>Đàn piano</t>
+  </si>
+  <si>
+    <t>Đàn tranh</t>
+  </si>
+  <si>
+    <t>Đàn organ</t>
+  </si>
+  <si>
+    <t>Đàn guitar</t>
+  </si>
+  <si>
+    <t>Đàn tranh là nhạc cụ dân tộc truyền thống</t>
+  </si>
+  <si>
+    <t>Thể loại nghệ thuật nào sử dụng sân khấu và diễn viên?</t>
+  </si>
+  <si>
+    <t>Hội họa</t>
+  </si>
+  <si>
+    <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t>Kịch nghệ</t>
+  </si>
+  <si>
+    <t>Điêu khắc</t>
+  </si>
+  <si>
+    <t>Kịch nghệ là nghệ thuật biểu diễn trên sân khấu</t>
+  </si>
+  <si>
+    <t>“Bức họa Nụ hôn” là tác phẩm của ai?</t>
+  </si>
+  <si>
+    <t>Picasso</t>
+  </si>
+  <si>
+    <t>Klimt</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>Klimt là họa sĩ vẽ bức “Nụ hôn”</t>
+  </si>
+  <si>
+    <t>Điệu nhảy flamenco có nguồn gốc từ quốc gia nào?</t>
+  </si>
+  <si>
+    <t>Tây Ban Nha</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>Flamenco bắt nguồn từ Tây Ban Nha</t>
+  </si>
+  <si>
+    <t>Ai là nhạc sĩ nổi tiếng với bản “Fur Elise”?</t>
+  </si>
+  <si>
+    <t>Mozart</t>
+  </si>
+  <si>
+    <t>Beethoven</t>
+  </si>
+  <si>
+    <t>Bach</t>
+  </si>
+  <si>
+    <t>Chopin</t>
+  </si>
+  <si>
+    <t>“Fur Elise” là bản nhạc của Beethoven</t>
+  </si>
+  <si>
+    <t>Tượng Nữ thần Tự do được đặt ở đâu?</t>
+  </si>
+  <si>
+    <t>Luân Đôn</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Tượng nằm tại thành phố New York, Mỹ</t>
+  </si>
+  <si>
+    <t>Phong cách hội họa “lập thể” gắn với ai?</t>
+  </si>
+  <si>
+    <t>Van Gogh</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>Monet</t>
+  </si>
+  <si>
+    <t>Picasso là đại diện tiêu biểu cho trường phái lập thể</t>
+  </si>
+  <si>
+    <t>Nghệ thuật hát tuồng có nguồn gốc từ?</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>Thái Lan</t>
+  </si>
+  <si>
+    <t>Hát tuồng là nghệ thuật truyền thống Việt Nam</t>
+  </si>
+  <si>
+    <t>Người vẽ bức “Đêm đầy sao”?</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Van Gogh là tác giả bức tranh nổi tiếng này</t>
+  </si>
+  <si>
+    <t>Chất liệu nào sau đây không dùng trong điêu khắc?</t>
+  </si>
+  <si>
+    <t>Đá</t>
+  </si>
+  <si>
+    <t>Gỗ</t>
+  </si>
+  <si>
+    <t>Giấy</t>
+  </si>
+  <si>
+    <t>Giấy không phổ biến trong điêu khắc</t>
+  </si>
+  <si>
+    <t>Tên gọi khác của nghệ thuật múa rối nước?</t>
+  </si>
+  <si>
+    <t>Múa rối dây</t>
+  </si>
+  <si>
+    <t>Múa rối tay</t>
+  </si>
+  <si>
+    <t>Múa rối nước</t>
+  </si>
+  <si>
+    <t>Múa rối bóng</t>
+  </si>
+  <si>
+    <t>Đây là hình thức múa truyền thống của VN</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ nào nổi tiếng với bản giao hưởng số 9?</t>
+  </si>
+  <si>
+    <t>Beethoven sáng tác bản Giao hưởng số 9 bất hủ</t>
+  </si>
+  <si>
+    <t>Tác phẩm điêu khắc “David” là của ai?</t>
+  </si>
+  <si>
+    <t>Michelangelo là tác giả tượng David</t>
+  </si>
+  <si>
+    <t>Điệu múa ballet bắt nguồn từ nước nào?</t>
+  </si>
+  <si>
+    <t>Ballet ra đời ở Pháp, phổ biến khắp thế giới</t>
+  </si>
+  <si>
+    <t>Nghệ thuật graffiti thường thấy ở đâu?</t>
+  </si>
+  <si>
+    <t>Sân khấu</t>
+  </si>
+  <si>
+    <t>Tường phố</t>
+  </si>
+  <si>
+    <t>Phòng triển lãm</t>
+  </si>
+  <si>
+    <t>Sách báo</t>
+  </si>
+  <si>
+    <t>Graffiti là nghệ thuật đường phố vẽ trên tường</t>
+  </si>
+  <si>
+    <t>Ca sĩ nào được mệnh danh là “Ông hoàng nhạc Pop”?</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Michael Jackson được gọi là “King of Pop”</t>
+  </si>
+  <si>
+    <t>Phim hoạt hình đầu tiên của Disney là?</t>
+  </si>
+  <si>
+    <t>Cinderella</t>
+  </si>
+  <si>
+    <t>Snow White</t>
+  </si>
+  <si>
+    <t>Aladdin</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>“Snow White” là phim hoạt hình đầu tiên của Disney</t>
+  </si>
+  <si>
+    <t>Bức “Bữa ăn tối cuối cùng” (The Last Supper) được vẽ bởi?</t>
+  </si>
+  <si>
+    <t>Leonardo da Vinci là tác giả bức tranh này</t>
+  </si>
+  <si>
+    <t>Người sáng lập hãng phim hoạt hình Studio Ghibli là ai?</t>
+  </si>
+  <si>
+    <t>Hayao Miyazaki</t>
+  </si>
+  <si>
+    <t>Takeshi Kitano</t>
+  </si>
+  <si>
+    <t>Isao Takahata</t>
+  </si>
+  <si>
+    <t>Mamoru Hosoda</t>
+  </si>
+  <si>
+    <t>Hayao Miyazaki là nhà sáng lập Studio Ghibli</t>
+  </si>
+  <si>
+    <t>Môn thể thao nào sử dụng quả bóng tròn?</t>
+  </si>
+  <si>
+    <t>Bóng bàn</t>
+  </si>
+  <si>
+    <t>Bóng chuyền</t>
+  </si>
+  <si>
+    <t>Bóng đá</t>
+  </si>
+  <si>
+    <t>Cầu lông</t>
+  </si>
+  <si>
+    <t>Bóng đá là môn thể thao phổ biến nhất dùng bóng tròn</t>
+  </si>
+  <si>
+    <t>Thể thao</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo đến từ quốc gia nào?</t>
+  </si>
+  <si>
+    <t>Bồ Đào Nha</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Ronaldo sinh ra tại Bồ Đào Nha</t>
+  </si>
+  <si>
+    <t>Sân bóng đá tiêu chuẩn có bao nhiêu cầu thủ mỗi đội?</t>
+  </si>
+  <si>
+    <t>Mỗi đội bóng đá có 11 cầu thủ trên sân</t>
+  </si>
+  <si>
+    <t>Olympic được tổ chức bao nhiêu năm một lần?</t>
+  </si>
+  <si>
+    <t>Olympic diễn ra mỗi 4 năm một lần</t>
+  </si>
+  <si>
+    <t>Môn thể thao nào có thuật ngữ "ace"?</t>
+  </si>
+  <si>
+    <t>Quần vợt</t>
+  </si>
+  <si>
+    <t>Ace là cú giao bóng ăn điểm trực tiếp trong tennis</t>
+  </si>
+  <si>
+    <t>Huy chương cao nhất trong Olympic là gì?</t>
+  </si>
+  <si>
+    <t>Vàng</t>
+  </si>
+  <si>
+    <t>Bạch kim</t>
+  </si>
+  <si>
+    <t>Huy chương vàng là phần thưởng cao nhất</t>
+  </si>
+  <si>
+    <t>Môn võ nào có nguồn gốc từ Nhật Bản?</t>
+  </si>
+  <si>
+    <t>Taekwondo</t>
+  </si>
+  <si>
+    <t>Karate</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Muay Thai</t>
+  </si>
+  <si>
+    <t>Karate bắt nguồn từ Nhật Bản</t>
+  </si>
+  <si>
+    <t>Tay vợt nổi tiếng người Thụy Sĩ là ai?</t>
+  </si>
+  <si>
+    <t>Roger Federer</t>
+  </si>
+  <si>
+    <t>Nadal</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>Djokovic</t>
+  </si>
+  <si>
+    <t>Federer là tay vợt huyền thoại người Thụy Sĩ</t>
+  </si>
+  <si>
+    <t>Quốc gia nào tổ chức World Cup 2022?</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Qatar là nước chủ nhà World Cup 2022</t>
+  </si>
+  <si>
+    <t>Môn thể thao nào sử dụng gậy đánh bóng?</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Bóng rổ</t>
+  </si>
+  <si>
+    <t>Golf sử dụng gậy để đánh bóng vào lỗ</t>
+  </si>
+  <si>
+    <t>Tay đua công thức 1 nổi tiếng người Anh là ai?</t>
+  </si>
+  <si>
+    <t>Sebastian Vettel</t>
+  </si>
+  <si>
+    <t>Lewis Hamilton</t>
+  </si>
+  <si>
+    <t>Max Verstappen</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Hamilton là tay đua F1 nổi tiếng của Anh</t>
+  </si>
+  <si>
+    <t>Bóng rổ có bao nhiêu người trong một đội trên sân?</t>
+  </si>
+  <si>
+    <t>Mỗi đội bóng rổ có 5 cầu thủ thi đấu</t>
+  </si>
+  <si>
+    <t>Michael Jordan nổi tiếng với môn thể thao nào?</t>
+  </si>
+  <si>
+    <t>Điền kinh</t>
+  </si>
+  <si>
+    <t>Bơi lội</t>
+  </si>
+  <si>
+    <t>Michael Jordan là huyền thoại bóng rổ Mỹ</t>
+  </si>
+  <si>
+    <t>Trong bóng chuyền, mỗi đội có bao nhiêu người trên sân?</t>
+  </si>
+  <si>
+    <t>Mỗi đội bóng chuyền có 6 người thi đấu chính</t>
+  </si>
+  <si>
+    <t>Lionel Messi sinh ra ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>Messi là người Argentina</t>
+  </si>
+  <si>
+    <t>Thế vận hội mùa đông khác gì mùa hè?</t>
+  </si>
+  <si>
+    <t>Diễn ra trong tuyết</t>
+  </si>
+  <si>
+    <t>Tổ chức 2 năm một lần</t>
+  </si>
+  <si>
+    <t>Chỉ dành cho trẻ em</t>
+  </si>
+  <si>
+    <t>Chỉ có 1 quốc gia tham gia</t>
+  </si>
+  <si>
+    <t>Thế vận hội mùa đông có các môn thi trên tuyết/băng</t>
+  </si>
+  <si>
+    <t>Môn thể thao nào sử dụng bàn và vợt nhỏ?</t>
+  </si>
+  <si>
+    <t>Bóng bàn chơi trên bàn với vợt nhỏ</t>
+  </si>
+  <si>
+    <t>Ai là VĐV điền kinh nổi tiếng với biệt danh “Tia chớp”?</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Mo Farah</t>
+  </si>
+  <si>
+    <t>Asafa Powell</t>
+  </si>
+  <si>
+    <t>Usain Bolt là VĐV chạy nhanh nhất thế giới</t>
+  </si>
+  <si>
+    <t>Môn thể thao nào cần thảm để biểu diễn?</t>
+  </si>
+  <si>
+    <t>Võ thuật</t>
+  </si>
+  <si>
+    <t>Thể dục dụng cụ</t>
+  </si>
+  <si>
+    <t>Thể dục dụng cụ dùng thảm cho bài biểu diễn</t>
+  </si>
+  <si>
+    <t>Quốc gia nào giành nhiều HCV Olympic nhất?</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Mỹ dẫn đầu về số lượng HCV trong lịch sử Olympic</t>
+  </si>
+  <si>
+    <t>Thủ đô của Nhật Bản là?</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>Nagoya</t>
+  </si>
+  <si>
+    <t>Hiroshima</t>
+  </si>
+  <si>
+    <t>Tokyo là thủ đô hiện tại của Nhật Bản</t>
+  </si>
+  <si>
+    <t>Thế giới</t>
+  </si>
+  <si>
+    <t>Đồng tiền chính thức của Mỹ là gì?</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Yen</t>
+  </si>
+  <si>
+    <t>Đồng đô la Mỹ là tiền tệ chính thức của Hoa Kỳ</t>
+  </si>
+  <si>
+    <t>Tòa nhà chọc trời Burj Khalifa nằm ở đâu?</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Burj Khalifa nằm tại Dubai, UAE</t>
+  </si>
+  <si>
+    <t>Thác nước cao nhất thế giới tên là gì?</t>
+  </si>
+  <si>
+    <t>Thác Niagara</t>
+  </si>
+  <si>
+    <t>Thác Angel</t>
+  </si>
+  <si>
+    <t>Thác Victoria</t>
+  </si>
+  <si>
+    <t>Thác Iguazu</t>
+  </si>
+  <si>
+    <t>Thác Angel ở Venezuela là cao nhất thế giới</t>
+  </si>
+  <si>
+    <t>Kỳ quan nào vẫn còn tồn tại đến ngày nay?</t>
+  </si>
+  <si>
+    <t>Đền Artemis</t>
+  </si>
+  <si>
+    <t>Tượng thần Zeus</t>
+  </si>
+  <si>
+    <t>Kim tự tháp Ai Cập</t>
+  </si>
+  <si>
+    <t>Vườn treo Babylon</t>
+  </si>
+  <si>
+    <t>Chỉ Kim tự tháp Giza vẫn còn tồn tại</t>
+  </si>
+  <si>
+    <t>Quốc gia nào có dân số đông thứ hai thế giới?</t>
+  </si>
+  <si>
+    <t>Ấn Độ là quốc gia đông dân thứ hai sau Trung Quốc</t>
+  </si>
+  <si>
+    <t>Liên Hợp Quốc được thành lập vào năm nào?</t>
+  </si>
+  <si>
+    <t>Liên Hợp Quốc được thành lập sau Thế chiến II (1945)</t>
+  </si>
+  <si>
+    <t>Núi lửa nổi tiếng ở Ý tên là gì?</t>
+  </si>
+  <si>
+    <t>Núi Vesuvius gần Naples, Ý, từng chôn vùi Pompeii</t>
+  </si>
+  <si>
+    <t>Quốc gia nào có diện tích nhỏ nhất thế giới?</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Vatican City là quốc gia nhỏ nhất về diện tích và dân số</t>
+  </si>
+  <si>
+    <t>Nước nào có hình dạng giống chiếc ủng?</t>
+  </si>
+  <si>
+    <t>Italia (Ý) có hình dáng như chiếc ủng trên bản đồ</t>
+  </si>
+  <si>
+    <t>Ngày Quốc tế Phụ nữ là ngày nào?</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <t>Ngày 8 tháng 3 là ngày Quốc tế Phụ nữ toàn cầu</t>
+  </si>
+  <si>
+    <t>Quốc gia nào có số lượng hòn đảo nhiều nhất?</t>
+  </si>
+  <si>
+    <t>Thụy Điển</t>
+  </si>
+  <si>
+    <t>Thụy Điển có hơn 260.000 đảo – nhiều nhất thế giới</t>
+  </si>
+  <si>
+    <t>Người nổi tiếng nào từng là tổng thống Mỹ?</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Martin Luther King</t>
+  </si>
+  <si>
+    <t>Barack Obama là cựu Tổng thống Hoa Kỳ</t>
+  </si>
+  <si>
+    <t>Tượng Nữ thần Tự do là món quà của quốc gia nào?</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Pháp tặng tượng này cho Mỹ vào năm 1886</t>
+  </si>
+  <si>
+    <t>Hệ thống núi dài nhất thế giới là gì?</t>
+  </si>
+  <si>
+    <t>Andes là dãy núi dài nhất thế giới ở Nam Mỹ</t>
+  </si>
+  <si>
+    <t>Quốc gia nào có nhiều múi giờ nhất?</t>
+  </si>
+  <si>
+    <t>Nga trải dài 11 múi giờ – nhiều nhất thế giới</t>
+  </si>
+  <si>
+    <t>Thành phố nào nổi tiếng với tháp Eiffel?</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Paris là nơi tọa lạc tháp Eiffel nổi tiếng</t>
+  </si>
+  <si>
+    <t>Quốc gia nào không có quân đội?</t>
+  </si>
+  <si>
+    <t>Thụy Sĩ</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Costa Rica là quốc gia không duy trì quân đội từ 1948</t>
+  </si>
+  <si>
+    <t>Đồng tiền của Nhật Bản là gì?</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Yen là đơn vị tiền tệ chính thức của Nhật Bản</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ được sử dụng phổ biến nhất thế giới là?</t>
+  </si>
+  <si>
+    <t>Tiếng Anh</t>
+  </si>
+  <si>
+    <t>Tiếng Trung Quốc</t>
+  </si>
+  <si>
+    <t>Tiếng Tây Ban Nha</t>
+  </si>
+  <si>
+    <t>Tiếng Hindi</t>
+  </si>
+  <si>
+    <t>Tiếng Trung có số người bản ngữ lớn nhất thế giới</t>
+  </si>
+  <si>
+    <t>Nguyên tử khối của Oxi là bao nhiêu?</t>
+  </si>
+  <si>
+    <t>Nguyên tử khối của Oxi là 16</t>
+  </si>
+  <si>
+    <t>Công thức hóa học của nước là gì?</t>
+  </si>
+  <si>
+    <t>H2O gồm 2 nguyên tử H và 1 nguyên tử O</t>
+  </si>
+  <si>
+    <t>Nguyên tố nào có ký hiệu là Na?</t>
+  </si>
+  <si>
+    <t>Natri</t>
+  </si>
+  <si>
+    <t>Magie</t>
+  </si>
+  <si>
+    <t>Canxi</t>
+  </si>
+  <si>
+    <t>Nitơ</t>
+  </si>
+  <si>
+    <t>Na là ký hiệu của nguyên tố Natri</t>
+  </si>
+  <si>
+    <t>Hợp chất NaCl còn gọi là gì?</t>
+  </si>
+  <si>
+    <t>Đường</t>
+  </si>
+  <si>
+    <t>Baking soda</t>
+  </si>
+  <si>
+    <t>Muối ăn</t>
+  </si>
+  <si>
+    <t>Dầu ăn</t>
+  </si>
+  <si>
+    <t>NaCl là công thức hóa học của muối ăn</t>
+  </si>
+  <si>
+    <t>Hóa trị của Oxi trong H2O là?</t>
+  </si>
+  <si>
+    <t>Oxi có hóa trị II trong phân tử nước</t>
+  </si>
+  <si>
+    <t>Kim loại nào nhẹ nhất?</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Liti là kim loại nhẹ nhất</t>
+  </si>
+  <si>
+    <t>Chất nào sau đây là bazơ?</t>
+  </si>
+  <si>
+    <t>HCl</t>
+  </si>
+  <si>
+    <t>NaOH</t>
+  </si>
+  <si>
+    <t>H2SO4</t>
+  </si>
+  <si>
+    <t>NaOH là bazơ mạnh thường gặp</t>
+  </si>
+  <si>
+    <t>Ký hiệu hóa học của Sắt là gì?</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Fa</t>
+  </si>
+  <si>
+    <t>Fn</t>
+  </si>
+  <si>
+    <t>Fe là ký hiệu của sắt trong bảng tuần hoàn</t>
+  </si>
+  <si>
+    <t>CO2 thuộc loại hợp chất nào?</t>
+  </si>
+  <si>
+    <t>Oxit axit</t>
+  </si>
+  <si>
+    <t>Oxit bazơ</t>
+  </si>
+  <si>
+    <t>Bazơ</t>
+  </si>
+  <si>
+    <t>Axít</t>
+  </si>
+  <si>
+    <t>CO2 là oxit axit</t>
+  </si>
+  <si>
+    <t>Nguyên tử gồm 3 loại hạt nào?</t>
+  </si>
+  <si>
+    <t>Proton, Neutron, Electron</t>
+  </si>
+  <si>
+    <t>Neutron, Electron, Positron</t>
+  </si>
+  <si>
+    <t>Proton, Electron, Ion</t>
+  </si>
+  <si>
+    <t>Electron, Hạt nhân, Ion</t>
+  </si>
+  <si>
+    <t>Đúng 3 loại hạt cơ bản là proton, neutron, electron</t>
+  </si>
+  <si>
+    <t>Dãy kim loại hoạt động mạnh nhất?</t>
+  </si>
+  <si>
+    <t>K, Na, Ca</t>
+  </si>
+  <si>
+    <t>Cu, Ag, Au</t>
+  </si>
+  <si>
+    <t>Fe, Zn, Pb</t>
+  </si>
+  <si>
+    <t>Hg, Bi, Sb</t>
+  </si>
+  <si>
+    <t>Kali, natri, canxi hoạt động mạnh nhất</t>
+  </si>
+  <si>
+    <t>Chất nào sau đây là axit?</t>
+  </si>
+  <si>
+    <t>CaO</t>
+  </si>
+  <si>
+    <t>HCl là axit clohidric mạnh</t>
+  </si>
+  <si>
+    <t>Chất nào dùng làm vôi sống?</t>
+  </si>
+  <si>
+    <t>CaCO3</t>
+  </si>
+  <si>
+    <t>Ca(OH)2</t>
+  </si>
+  <si>
+    <t>CaCl2</t>
+  </si>
+  <si>
+    <t>CaO là công thức của vôi sống</t>
+  </si>
+  <si>
+    <t>Nguyên tố phổ biến nhất trong vũ trụ là?</t>
+  </si>
+  <si>
+    <t>Oxi</t>
+  </si>
+  <si>
+    <t>Heli</t>
+  </si>
+  <si>
+    <t>Hidro</t>
+  </si>
+  <si>
+    <t>Hidro chiếm phần lớn trong vũ trụ</t>
+  </si>
+  <si>
+    <t>Chất nào dùng để thử khí CO2?</t>
+  </si>
+  <si>
+    <t>Phenolphtalein</t>
+  </si>
+  <si>
+    <t>Nước vôi trong</t>
+  </si>
+  <si>
+    <t>Quỳ tím</t>
+  </si>
+  <si>
+    <t>Nước cất</t>
+  </si>
+  <si>
+    <t>Nước vôi trong tạo kết tủa trắng với CO2</t>
+  </si>
+  <si>
+    <t>Dung dịch nào làm quỳ tím hóa đỏ?</t>
+  </si>
+  <si>
+    <t>Na2CO3</t>
+  </si>
+  <si>
+    <t>Axit HCl làm quỳ tím hóa đỏ</t>
+  </si>
+  <si>
+    <t>Phản ứng hóa học nào sinh ra nước?</t>
+  </si>
+  <si>
+    <t>CO2 + H2O → H2CO3</t>
+  </si>
+  <si>
+    <t>H2 + O2 → H2O</t>
+  </si>
+  <si>
+    <t>Na + H2O → NaOH + H2</t>
+  </si>
+  <si>
+    <t>H2 + Cl2 → HCl</t>
+  </si>
+  <si>
+    <t>H2 + O2 → H2O là phản ứng tạo nước</t>
+  </si>
+  <si>
+    <t>Nguyên tố nào có số hiệu nguyên tử là 1?</t>
+  </si>
+  <si>
+    <t>Hidro là nguyên tố số 1 trong bảng tuần hoàn</t>
+  </si>
+  <si>
+    <t>Hóa trị của Nhôm trong Al2O3 là?</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Nhôm có hóa trị III trong Al2O3</t>
+  </si>
+  <si>
+    <t>Hợp chất nào có tính lưỡng tính?</t>
+  </si>
+  <si>
+    <t>Al(OH)3</t>
+  </si>
+  <si>
+    <t>Al(OH)3 có tính lưỡng tính: vừa là bazơ, vừa là axit</t>
   </si>
 </sst>
 </file>
@@ -164,8 +2712,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,19 +3055,4745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37472EED-F9CE-43F9-ADBB-BF55581B943B}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="57.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B124" s="1">
+        <v>9</v>
+      </c>
+      <c r="C124" s="1">
+        <v>10</v>
+      </c>
+      <c r="D124" s="1">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1">
+        <v>12</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4</v>
+      </c>
+      <c r="E125" s="1">
+        <v>5</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1">
+        <v>5</v>
+      </c>
+      <c r="D133" s="1">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1">
+        <v>7</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5</v>
+      </c>
+      <c r="C135" s="1">
+        <v>6</v>
+      </c>
+      <c r="D135" s="1">
+        <v>7</v>
+      </c>
+      <c r="E135" s="1">
+        <v>8</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1918</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1945</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1950</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1960</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B152" s="3">
+        <v>45872</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D152" s="3">
+        <v>45662</v>
+      </c>
+      <c r="E152" s="3">
+        <v>45942</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B162" s="1">
+        <v>8</v>
+      </c>
+      <c r="C162" s="1">
+        <v>12</v>
+      </c>
+      <c r="D162" s="1">
+        <v>16</v>
+      </c>
+      <c r="E162" s="1">
+        <v>18</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2</v>
+      </c>
+      <c r="D166" s="1">
+        <v>3</v>
+      </c>
+      <c r="E166" s="1">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8A2EDA-E39A-46A1-B3F8-A4AFFD1A7B7E}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -542,80 +7823,522 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>792</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>793</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>794</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>796</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>797</v>
       </c>
       <c r="D4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E4" t="s">
+        <v>799</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D5" t="s">
+        <v>804</v>
+      </c>
+      <c r="E5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
+      <c r="G5" t="s">
+        <v>806</v>
+      </c>
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>808</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" t="s">
+        <v>810</v>
+      </c>
+      <c r="F7" t="s">
+        <v>810</v>
+      </c>
+      <c r="G7" t="s">
+        <v>811</v>
+      </c>
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C8" t="s">
+        <v>814</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
+        <v>815</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>816</v>
+      </c>
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C9" t="s">
+        <v>819</v>
+      </c>
+      <c r="D9" t="s">
+        <v>820</v>
+      </c>
+      <c r="E9" t="s">
+        <v>821</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>822</v>
+      </c>
+      <c r="H9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>823</v>
+      </c>
+      <c r="B10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C10" t="s">
+        <v>825</v>
+      </c>
+      <c r="D10" t="s">
+        <v>826</v>
+      </c>
+      <c r="E10" t="s">
+        <v>827</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>828</v>
+      </c>
+      <c r="H10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>829</v>
+      </c>
+      <c r="B11" t="s">
+        <v>830</v>
+      </c>
+      <c r="C11" t="s">
+        <v>831</v>
+      </c>
+      <c r="D11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E11" t="s">
+        <v>833</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>834</v>
+      </c>
+      <c r="H11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>835</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C12" t="s">
+        <v>837</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>840</v>
+      </c>
+      <c r="H12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>841</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>842</v>
+      </c>
+      <c r="E13" t="s">
+        <v>814</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>843</v>
+      </c>
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>844</v>
+      </c>
+      <c r="B14" t="s">
+        <v>842</v>
+      </c>
+      <c r="C14" t="s">
+        <v>845</v>
+      </c>
+      <c r="D14" t="s">
+        <v>846</v>
+      </c>
+      <c r="E14" t="s">
+        <v>847</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>848</v>
+      </c>
+      <c r="H14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>849</v>
+      </c>
+      <c r="B15" t="s">
+        <v>850</v>
+      </c>
+      <c r="C15" t="s">
+        <v>851</v>
+      </c>
+      <c r="D15" t="s">
+        <v>852</v>
+      </c>
+      <c r="E15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>853</v>
+      </c>
+      <c r="H15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>854</v>
+      </c>
+      <c r="B16" t="s">
+        <v>855</v>
+      </c>
+      <c r="C16" t="s">
+        <v>856</v>
+      </c>
+      <c r="D16" t="s">
+        <v>857</v>
+      </c>
+      <c r="E16" t="s">
+        <v>858</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>859</v>
+      </c>
+      <c r="H16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>860</v>
+      </c>
+      <c r="B17" t="s">
+        <v>814</v>
+      </c>
+      <c r="C17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D17" t="s">
+        <v>846</v>
+      </c>
+      <c r="E17" t="s">
+        <v>861</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>862</v>
+      </c>
+      <c r="H17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>863</v>
+      </c>
+      <c r="B18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D18" t="s">
+        <v>866</v>
+      </c>
+      <c r="E18" t="s">
+        <v>867</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>868</v>
+      </c>
+      <c r="H18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>869</v>
+      </c>
+      <c r="B19" t="s">
+        <v>851</v>
+      </c>
+      <c r="C19" t="s">
+        <v>852</v>
+      </c>
+      <c r="D19" t="s">
+        <v>850</v>
+      </c>
+      <c r="E19" t="s">
+        <v>810</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>870</v>
+      </c>
+      <c r="H19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>871</v>
+      </c>
+      <c r="B20" t="s">
+        <v>872</v>
+      </c>
+      <c r="C20" t="s">
+        <v>873</v>
+      </c>
+      <c r="D20" t="s">
+        <v>874</v>
+      </c>
+      <c r="E20" t="s">
+        <v>875</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>876</v>
+      </c>
+      <c r="H20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>877</v>
+      </c>
+      <c r="B21" t="s">
+        <v>813</v>
+      </c>
+      <c r="C21" t="s">
+        <v>842</v>
+      </c>
+      <c r="D21" t="s">
+        <v>878</v>
+      </c>
+      <c r="E21" t="s">
+        <v>814</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>879</v>
+      </c>
+      <c r="H21" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/CauHoi.xlsx
+++ b/bin/Debug/CauHoi.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLU\Đồ án 1\Đồ án 1 - Nhóm 14\Đồ án 1 - Nhóm 14\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A038AA91-02F8-4072-8381-7DE42FD6261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8145A-0103-4B53-B516-8607B67A414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F339FA2B-3473-4979-8A76-55EB0B03A2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="1699">
   <si>
     <t>NoiDung</t>
   </si>
@@ -5169,12 +5168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5520,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37472EED-F9CE-43F9-ADBB-BF55581B943B}">
   <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="B360" sqref="B360"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5827,16 +5825,16 @@
       <c r="A12" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1950</v>
       </c>
       <c r="C12" s="1">
         <v>1954</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1960</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1975</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -5934,10 +5932,10 @@
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>27399</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>16477</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -6867,16 +6865,16 @@
       <c r="A52" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -6974,10 +6972,10 @@
       <c r="B56" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>418</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -7075,16 +7073,16 @@
       <c r="A60" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>0.21</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>0.5</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>0.78</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>0.01</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -7907,16 +7905,16 @@
       <c r="A92" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>573</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>576</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -8014,10 +8012,10 @@
       <c r="B96" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -8115,16 +8113,16 @@
       <c r="A100" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="4" t="s">
         <v>604</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -8947,16 +8945,16 @@
       <c r="A132" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>732</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -9054,10 +9052,10 @@
       <c r="B136" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="3" t="s">
         <v>751</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -9155,16 +9153,16 @@
       <c r="A140" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="4" t="s">
         <v>726</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -13081,16 +13079,16 @@
       <c r="A291" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="2">
         <v>45872</v>
       </c>
-      <c r="C291" s="3">
+      <c r="C291" s="2">
         <v>45662</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E291" s="2">
         <v>45940</v>
       </c>
       <c r="F291" s="1" t="s">
@@ -14121,16 +14119,16 @@
       <c r="A331" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="2" t="s">
         <v>1545</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="E331" s="2" t="s">
         <v>1547</v>
       </c>
       <c r="F331" s="1" t="s">
@@ -14920,1091 +14918,6 @@
         <v>1698</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8A2EDA-E39A-46A1-B3F8-A4AFFD1A7B7E}">
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1519</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1542</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1548</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1550</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" t="s">
-        <v>528</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1553</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1554</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1562</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1568</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1574</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1585</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B20" t="s">
-        <v>528</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1589</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1590</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1596</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1602</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1613</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1614</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1620</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1632</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1646</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1647</v>
-      </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1654</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1657</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1663</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>16</v>
-      </c>
-      <c r="E36">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1677</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>367</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1680</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1685</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1686</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C39" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E39" t="s">
-        <v>413</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1695</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1698</v>
-      </c>
-      <c r="H41" t="s">
         <v>1510</v>
       </c>
     </row>

--- a/bin/Debug/CauHoi.xlsx
+++ b/bin/Debug/CauHoi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLU\Đồ án 1\Đồ án 1 - Nhóm 14\Đồ án 1 - Nhóm 14\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8145A-0103-4B53-B516-8607B67A414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6AA49-EE26-4B4D-939B-B7A88E3B0CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F339FA2B-3473-4979-8A76-55EB0B03A2BE}"/>
   </bookViews>
@@ -5519,7 +5519,7 @@
   <dimension ref="A1:H361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" activeCellId="2" sqref="H212 D14:D15 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bin/Debug/CauHoi.xlsx
+++ b/bin/Debug/CauHoi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLU\Đồ án 1\Đồ án 1 - Nhóm 14\Đồ án 1 - Nhóm 14\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6AA49-EE26-4B4D-939B-B7A88E3B0CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44BEA9-E147-4CF4-960D-721082D41E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F339FA2B-3473-4979-8A76-55EB0B03A2BE}"/>
   </bookViews>
@@ -5518,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37472EED-F9CE-43F9-ADBB-BF55581B943B}">
   <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" activeCellId="2" sqref="H212 D14:D15 E12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
